--- a/模板.xlsx
+++ b/模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elk\vue-project\software\Library-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDA1B85-4F32-4CA8-B3E5-9BE6FEB90047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92CC436-4F9E-4EC7-B414-0E60935AC5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,42 +52,6 @@
   </si>
   <si>
     <t>退货原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nicholas C.Zakas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民邮电出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-115-27579-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破损</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌合之众大众心理研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-5139-1952-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民主与建设出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古斯塔夫勒庞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript高级程序设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -450,69 +414,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模板.xlsx
+++ b/模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elk\vue-project\software\Library-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92CC436-4F9E-4EC7-B414-0E60935AC5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF001B-165B-41C6-B680-836EEDD98149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>书名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货原因</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>book_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_public_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_return_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_seller</t>
+  </si>
+  <si>
+    <t>book_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,21 +384,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="28.9140625" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,13 +416,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
